--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Lab\github\AstroAnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D95AB-96BC-4C1D-9381-EE3DB18C8049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE615A2F-1180-4567-AC52-A4DD3948D1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>https://www.amazon.com/YDL-battery-Rechargeable-Lithium-Connector/dp/B07BTH72FJ/ref=sr_1_3_sspa?dchild=1&amp;keywords=lipo+battery+3.7v+400mah&amp;qid=1627935241&amp;sr=8-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFFTEpDQ1hTNjVFSEImZW5jcnlwdGVkSWQ9QTEwMjM4MjMxNko2UFZQQzk3RklGJmVuY3J5cHRlZEFkSWQ9QTAxOTM1ODkzVzNYM0hQQUhHUk5KJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+    <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
   <si>
-    <t>360mAh LiPo Battery</t>
+    <t>220mAh LiPo Battery</t>
   </si>
 </sst>
 </file>
@@ -382,16 +382,16 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="124.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" customWidth="1"/>
+    <col min="2" max="2" width="124.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.amazon.com/YDL-battery-Rechargeable-Lithium-Connector/dp/B07BTH72FJ/ref=sr_1_3_sspa?dchild=1&amp;keywords=lipo+battery+3.7v+400mah&amp;qid=1627935241&amp;sr=8-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFFTEpDQ1hTNjVFSEImZW5jcnlwdGVkSWQ9QTEwMjM4MjMxNko2UFZQQzk3RklGJmVuY3J5cHRlZEFkSWQ9QTAxOTM1ODkzVzNYM0hQQUhHUk5KJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{933713C2-EACB-42C5-B9B4-35BE7BF145AE}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{D6F34479-A928-4CFF-8767-14D41B2580C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Lab\github\AstroAnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE615A2F-1180-4567-AC52-A4DD3948D1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA83C5-E665-4C12-9AA1-0FEFA1DE0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1608" yWindow="1308" windowWidth="18000" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
   <si>
     <t>220mAh LiPo Battery</t>
+  </si>
+  <si>
+    <t>2x5x2.5mm ball bearing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/2x5x2-5mm-MR52-ZZ-Precision-Bearings-Chrome/dp/B00TVPSCVO/ref=sr_1_3?dchild=1&amp;keywords=tiny+ball+bearing&amp;qid=1631670884&amp;sr=8-3</t>
   </si>
 </sst>
 </file>
@@ -379,19 +385,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" customWidth="1"/>
-    <col min="2" max="2" width="124.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="124.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -399,9 +405,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D6F34479-A928-4CFF-8767-14D41B2580C9}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0977FA76-F2E8-4F3F-B14A-0DA9B11D6867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Lab\github\AstroAnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA83C5-E665-4C12-9AA1-0FEFA1DE0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE6AAB-F3A1-4CA5-ADC3-7ADC72EA7838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="1308" windowWidth="18000" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/2x5x2-5mm-MR52-ZZ-Precision-Bearings-Chrome/dp/B00TVPSCVO/ref=sr_1_3?dchild=1&amp;keywords=tiny+ball+bearing&amp;qid=1631670884&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Magnets</t>
+  </si>
+  <si>
+    <t>https://www.kjmagnetics.com/proddetail.asp?prod=RA22CS-N-N52</t>
+  </si>
+  <si>
+    <t>Ball bearing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-MR84-2RS-Bearing-4x8x3mm-Bearings/dp/B07TRQ19Y5/ref=sr_1_6?dchild=1&amp;keywords=ball%2Bbearing%2B4x8&amp;qid=1632252936&amp;sr=8-6&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -60,12 +72,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -96,12 +114,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,10 +422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -411,12 +435,30 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D6F34479-A928-4CFF-8767-14D41B2580C9}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0977FA76-F2E8-4F3F-B14A-0DA9B11D6867}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{4ECE27B4-E012-49D6-A4B6-C0761D7A4288}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{DE4C42C9-64A4-4EFC-80CF-522871E4CDC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Lab\github\AstroAnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE6AAB-F3A1-4CA5-ADC3-7ADC72EA7838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D85912-BCC5-45DF-A1E1-E6255CF412D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
@@ -49,13 +49,127 @@
   </si>
   <si>
     <t>https://www.amazon.com/uxcell-MR84-2RS-Bearing-4x8x3mm-Bearings/dp/B07TRQ19Y5/ref=sr_1_6?dchild=1&amp;keywords=ball%2Bbearing%2B4x8&amp;qid=1632252936&amp;sr=8-6&amp;th=1</t>
+  </si>
+  <si>
+    <t>6mm pogo ping</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mxfans-Gold-plated-Copper-Needles-Connector/dp/B07FQF2BRC/ref=sr_1_5?keywords=pogo+pins&amp;qid=1636654864&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>9mm pogo ping</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mxfans-Gold-Plated-Copper-Needles-Thimble/dp/B07FQ52W88/ref=pd_bxgy_img_1/141-8725953-4433338?pd_rd_w=hwFaH&amp;pf_rd_p=c64372fa-c41c-422e-990d-9e034f73989b&amp;pf_rd_r=JXMSAAKQYZ443C1D2MQQ&amp;pd_rd_r=e2e635a7-9aed-4177-8cf6-8378d3076ac3&amp;pd_rd_wg=YDp76&amp;pd_rd_i=B07FQ52W88&amp;psc=1</t>
+  </si>
+  <si>
+    <t>SCD41</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sensirion-ag/SCD41-D-R2/13684005</t>
+  </si>
+  <si>
+    <t>SCD40</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sensirion-ag/SCD40-D-R2/13684003</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/18084</t>
+  </si>
+  <si>
+    <t>RFM97CW</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/18085</t>
+  </si>
+  <si>
+    <t>RFM95CW</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/illinois-capacitor/RJD3555HPPV30M/6159145?s=N4IgTCBcDaIEoCkAiBmArBgEgBWwNRQAYBZAAhAF0BfIA</t>
+  </si>
+  <si>
+    <t>RJD3555HPPV30M</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/excelitas-technologies/TPIS-1S-1385-5029/9760638</t>
+  </si>
+  <si>
+    <t>TPIS 1S 1385 / 5029</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>MacMaster Carr</t>
+  </si>
+  <si>
+    <t>Aluminum frame</t>
+  </si>
+  <si>
+    <t>Handles</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>https://www.matterhackers.com/store/l/pro-series-petg/sk/M89FGW3P</t>
+  </si>
+  <si>
+    <t>Matter hacker</t>
+  </si>
+  <si>
+    <t>Flament (PETG)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/47065T101-47065T121/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/47065T101-47065T209/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/5190A3/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/3136N153/</t>
+  </si>
+  <si>
+    <t>T-Slotted Framing</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90991A122/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90991A123/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92832A334/</t>
+  </si>
+  <si>
+    <t>Vender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +185,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,8 +222,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -109,12 +258,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +313,46 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -409,19 +635,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="124.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -429,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -437,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -445,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -453,13 +680,252 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11">
+        <v>10</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D9:D12"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D6F34479-A928-4CFF-8767-14D41B2580C9}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0977FA76-F2E8-4F3F-B14A-0DA9B11D6867}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{4ECE27B4-E012-49D6-A4B6-C0761D7A4288}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{DE4C42C9-64A4-4EFC-80CF-522871E4CDC5}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{90A4C6F6-5FE6-48E5-AE05-07AAA63A87B5}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://www.amazon.com/Mxfans-Gold-Plated-Copper-Needles-Thimble/dp/B07FQ52W88/ref=pd_bxgy_img_1/141-8725953-4433338?pd_rd_w=hwFaH&amp;pf_rd_p=c64372fa-c41c-422e-990d-9e034f73989b&amp;pf_rd_r=JXMSAAKQYZ443C1D2MQQ&amp;pd_rd_r=e2e635a7-9aed-4177-8cf6-8378d3076ac3&amp;pd_rd_wg=YDp76&amp;pd_rd_i=B07FQ52W88&amp;psc=1" xr:uid="{BC49AF42-576E-4D98-8595-460B4B5A42F8}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{6790ACE4-8321-41AF-B677-08C1887161B8}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{F40B7E74-B439-4EDA-B653-CB146DA0D2D4}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{09D20FF2-68B7-4E00-B738-850DBA5D715B}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{159F29E3-2803-41C3-AE72-5BA1627EAAAE}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{0E5EA10D-24A8-4D7E-A9AD-7B5630EC8069}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{F2BEE9A6-9952-4861-A314-055C2CDBAA5C}"/>
+    <hyperlink ref="B22" r:id="rId13" xr:uid="{3D365D58-6870-439E-9A27-6EA34BED0598}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{739E12E5-963B-40FD-B7D0-FEE6B84CE722}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{3D7B489F-553F-4C1C-9E01-470B2EF8402B}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{C6BCB14C-F7C0-44B1-A92A-FA3D02D80D43}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{208F045B-0AA2-47C2-A8DB-AB781EFD349D}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{CA7CBA7D-751C-4B66-8BC1-E28A06AFDE55}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{AFF45720-7163-465D-BBE8-FA31DE66F10F}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{61CE9D57-2267-4439-B665-BC62C21CB6A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Lab\github\AstroAnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D85912-BCC5-45DF-A1E1-E6255CF412D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB425C7-98EE-4AFB-9416-FD712ABC8BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="756" yWindow="0" windowWidth="21420" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>Vender</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0759P8GBZ/ref=sspa_dk_detail_1?pd_rd_i=B06XC8QT51&amp;pd_rd_w=FV4rj&amp;pf_rd_p=887084a2-5c34-4113-a4f8-b7947847c308&amp;pd_rd_wg=oQgCF&amp;pf_rd_r=GS49W1HTHXW5T4AT4QY7&amp;pd_rd_r=833ef680-ccd0-4f97-9559-c0b1378e6835&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMDVJTkczVVFMVEJEJmVuY3J5cHRlZElkPUEwNjU3NDgyMVhPOE9KUlNMTkhJNyZlbmNyeXB0ZWRBZElkPUEwMzQyNTUzMTFRQjQ3T0xMUEo0USZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t>nRF52840 module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Raytac-MDBT50Q-U1MV2-Bluetooth-Connector-Pre-Certified/dp/B0851WK785/ref=sr_1_16?keywords=nRF52840&amp;qid=1636996615&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/linx-technologies-inc/ANT-916-USP/3830737</t>
+  </si>
+  <si>
+    <t>LoRa antenna</t>
   </si>
 </sst>
 </file>
@@ -300,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,12 +342,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,6 +357,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,6 +375,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,13 +712,13 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -701,10 +729,10 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -715,193 +743,279 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>5</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>4</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="12">
+        <v>40</v>
+      </c>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D6F34479-A928-4CFF-8767-14D41B2580C9}"/>
@@ -924,8 +1038,11 @@
     <hyperlink ref="B18" r:id="rId18" xr:uid="{CA7CBA7D-751C-4B66-8BC1-E28A06AFDE55}"/>
     <hyperlink ref="B19" r:id="rId19" xr:uid="{AFF45720-7163-465D-BBE8-FA31DE66F10F}"/>
     <hyperlink ref="B20" r:id="rId20" xr:uid="{61CE9D57-2267-4439-B665-BC62C21CB6A8}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.amazon.com/dp/B0759P8GBZ/ref=sspa_dk_detail_1?pd_rd_i=B06XC8QT51&amp;pd_rd_w=FV4rj&amp;pf_rd_p=887084a2-5c34-4113-a4f8-b7947847c308&amp;pd_rd_wg=oQgCF&amp;pf_rd_r=GS49W1HTHXW5T4AT4QY7&amp;pd_rd_r=833ef680-ccd0-4f97-9559-c0b1378e6835&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMDVJTkczVVFMVEJEJmVuY3J5cHRlZElkPUEwNjU3NDgyMVhPOE9KUlNMTkhJNyZlbmNyeXB0ZWRBZElkPUEwMzQyNTUzMTFRQjQ3T0xMUEo0USZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{BB688341-BC7D-4EF3-AC58-53FAED0FEF4B}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{E2499009-C043-41CC-9CD1-9FA92EFB8E01}"/>
+    <hyperlink ref="B29" r:id="rId23" xr:uid="{7F1B1F48-891A-4204-B011-3363D69FE33A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\Lab\github\AstroAnt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liufangzheng/Documents/Lab/Rovable/AstroAnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB425C7-98EE-4AFB-9416-FD712ABC8BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F04D0F-3A01-D846-A564-3FE70D027205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="756" yWindow="0" windowWidth="21420" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="2120" windowWidth="30380" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
@@ -181,15 +181,43 @@
   </si>
   <si>
     <t>LoRa antenna</t>
+  </si>
+  <si>
+    <t>heat insert</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZS6F5QW/ref=sr_1_1_sspa?keywords=Keadic+60+Pcs+M3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZRY23NH/ref=sr_1_1_sspa?keywords=Keadic%2B60%2BPcs%2BM3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZS4L8G7/ref=sr_1_1_sspa?keywords=Keadic%2B60%2BPcs%2BM3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3660</t>
+  </si>
+  <si>
+    <t>adafruit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,71 +344,95 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,18 +717,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="124.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="124.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -692,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -700,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -708,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -722,7 +774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -732,11 +784,11 @@
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -746,9 +798,9 @@
       <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -758,11 +810,11 @@
       <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -772,9 +824,9 @@
       <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -784,9 +836,9 @@
       <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -796,9 +848,9 @@
       <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -808,11 +860,11 @@
       <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -822,9 +874,9 @@
       <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -834,11 +886,11 @@
       <c r="C15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -848,9 +900,9 @@
       <c r="C16" s="9">
         <v>5</v>
       </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -860,9 +912,9 @@
       <c r="C17" s="12">
         <v>4</v>
       </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
@@ -872,9 +924,9 @@
       <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -884,9 +936,9 @@
       <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>33</v>
       </c>
@@ -896,9 +948,9 @@
       <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
@@ -908,9 +960,9 @@
       <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
@@ -924,7 +976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -936,86 +988,140 @@
       </c>
       <c r="D24" s="17"/>
     </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="12">
         <v>40</v>
       </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="10"/>
+      <c r="D29" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="11">
+        <v>5</v>
+      </c>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="12">
+        <v>3</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2</v>
+      </c>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="12">
+        <v>5</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D29:D30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D6F34479-A928-4CFF-8767-14D41B2580C9}"/>
@@ -1041,8 +1147,13 @@
     <hyperlink ref="B24" r:id="rId21" display="https://www.amazon.com/dp/B0759P8GBZ/ref=sspa_dk_detail_1?pd_rd_i=B06XC8QT51&amp;pd_rd_w=FV4rj&amp;pf_rd_p=887084a2-5c34-4113-a4f8-b7947847c308&amp;pd_rd_wg=oQgCF&amp;pf_rd_r=GS49W1HTHXW5T4AT4QY7&amp;pd_rd_r=833ef680-ccd0-4f97-9559-c0b1378e6835&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExMDVJTkczVVFMVEJEJmVuY3J5cHRlZElkPUEwNjU3NDgyMVhPOE9KUlNMTkhJNyZlbmNyeXB0ZWRBZElkPUEwMzQyNTUzMTFRQjQ3T0xMUEo0USZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1" xr:uid="{BB688341-BC7D-4EF3-AC58-53FAED0FEF4B}"/>
     <hyperlink ref="B28" r:id="rId22" xr:uid="{E2499009-C043-41CC-9CD1-9FA92EFB8E01}"/>
     <hyperlink ref="B29" r:id="rId23" xr:uid="{7F1B1F48-891A-4204-B011-3363D69FE33A}"/>
+    <hyperlink ref="B30" r:id="rId24" xr:uid="{4BAC105E-2979-0948-9A44-015DD32CF707}"/>
+    <hyperlink ref="B31" r:id="rId25" display="https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZS6F5QW/ref=sr_1_1_sspa?keywords=Keadic+60+Pcs+M3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl" xr:uid="{EEEE8AD9-6CA3-4943-8D41-94E38D89A265}"/>
+    <hyperlink ref="B32" r:id="rId26" display="https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZRY23NH/ref=sr_1_1_sspa?keywords=Keadic%2B60%2BPcs%2BM3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1" xr:uid="{F87A3EF0-DAA7-FC4B-A8A0-A5B149119610}"/>
+    <hyperlink ref="B33" r:id="rId27" display="https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZS4L8G7/ref=sr_1_1_sspa?keywords=Keadic%2B60%2BPcs%2BM3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1" xr:uid="{DBAAFF62-96C3-614A-85E2-FB39FD3893FC}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{F66B1E26-B8BE-9041-9124-EB0BE2B50CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liufangzheng/Documents/Lab/Rovable/AstroAnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F04D0F-3A01-D846-A564-3FE70D027205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D74993-EB7C-7F48-BD40-D92D9615081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="2120" windowWidth="30380" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="4180" windowWidth="30380" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>https://www.amazon.com/220mAh-Battery-Charger-Eachine-Quadcopter/dp/B07J3XJRF8/ref=sr_1_31?dchild=1&amp;keywords=3.7V+lipo&amp;qid=1629071810&amp;sr=8-31</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>adafruit</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ShineNow-Quality-Replacement-WELLER-WE1010NA/dp/B071KYGZT8/ref=sr_1_2_sspa?keywords=weller+solder+tips&amp;qid=1637112610&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNVpKN1k4SzdBS04yJmVuY3J5cHRlZElkPUEwMDc2ODI2UUtTVTQ0M1RKWkFUJmVuY3J5cHRlZEFkSWQ9QTA3NzEyOTYyUEdJMzBSUVQwMVlVJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>Weller solder tips</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,6 +1119,90 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
+    </row>
+    <row r="40" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1152,8 +1242,9 @@
     <hyperlink ref="B32" r:id="rId26" display="https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZRY23NH/ref=sr_1_1_sspa?keywords=Keadic%2B60%2BPcs%2BM3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1" xr:uid="{F87A3EF0-DAA7-FC4B-A8A0-A5B149119610}"/>
     <hyperlink ref="B33" r:id="rId27" display="https://www.amazon.com/Keadic-M3x6mmx5mm-Threaded-Embedment-Printing/dp/B08ZS4L8G7/ref=sr_1_1_sspa?keywords=Keadic%2B60%2BPcs%2BM3x6mmx5mm&amp;qid=1637078413&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE2Wkw0TE05N0xUMEgmZW5jcnlwdGVkSWQ9QTAwNDg2MzdZMzRaRENESlI3NEUmZW5jcnlwdGVkQWRJZD1BMDAyODY2NTJZQUxJNllUNU4xRVgmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1" xr:uid="{DBAAFF62-96C3-614A-85E2-FB39FD3893FC}"/>
     <hyperlink ref="B34" r:id="rId28" xr:uid="{F66B1E26-B8BE-9041-9124-EB0BE2B50CF6}"/>
+    <hyperlink ref="B40" r:id="rId29" display="https://www.amazon.com/ShineNow-Quality-Replacement-WELLER-WE1010NA/dp/B071KYGZT8/ref=sr_1_2_sspa?keywords=weller+solder+tips&amp;qid=1637112610&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNVpKN1k4SzdBS04yJmVuY3J5cHRlZElkPUEwMDc2ODI2UUtTVTQ0M1RKWkFUJmVuY3J5cHRlZEFkSWQ9QTA3NzEyOTYyUEdJMzBSUVQwMVlVJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==" xr:uid="{38DA2F61-0070-7543-8461-08369C9985C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
 </worksheet>
 </file>